--- a/WorldCupSchedule.xlsx
+++ b/WorldCupSchedule.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\code\world-cup-cal\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectFile\world-cup-cal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30EFE4C4-0CD4-49C3-842A-ABEE73E3FF2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AF128E4-D44E-4BF5-8142-2CF9BE44C3F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1920" yWindow="1920" windowWidth="17280" windowHeight="9024" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="45">
   <si>
     <t>开始时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -162,9 +162,6 @@
   </si>
   <si>
     <t>塞尔维亚</t>
-  </si>
-  <si>
-    <t>苏格兰</t>
   </si>
   <si>
     <t>分组</t>
@@ -516,8 +513,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C32" sqref="A1:E49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -532,13 +529,13 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>0</v>
@@ -551,7 +548,7 @@
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -568,7 +565,7 @@
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -585,7 +582,7 @@
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -602,7 +599,7 @@
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -619,7 +616,7 @@
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C6" s="1" t="s">
@@ -636,7 +633,7 @@
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -653,7 +650,7 @@
       <c r="A8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -670,7 +667,7 @@
       <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C9" s="1" t="s">
@@ -687,7 +684,7 @@
       <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C10" s="1" t="s">
@@ -704,7 +701,7 @@
       <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C11" s="1" t="s">
@@ -721,7 +718,7 @@
       <c r="A12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C12" s="1" t="s">
@@ -738,7 +735,7 @@
       <c r="A13" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C13" s="1" t="s">
@@ -755,7 +752,7 @@
       <c r="A14" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C14" s="1" t="s">
@@ -772,7 +769,7 @@
       <c r="A15" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C15" s="1" t="s">
@@ -789,7 +786,7 @@
       <c r="A16" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C16" s="1" t="s">
@@ -806,7 +803,7 @@
       <c r="A17" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C17" s="1" t="s">
@@ -823,7 +820,7 @@
       <c r="A18" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="1" t="s">
         <v>26</v>
       </c>
       <c r="C18" s="1" t="s">
@@ -840,7 +837,7 @@
       <c r="A19" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C19" s="1" t="s">
@@ -857,7 +854,7 @@
       <c r="A20" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C20" s="1" t="s">
@@ -874,7 +871,7 @@
       <c r="A21" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C21" s="1" t="s">
@@ -891,7 +888,7 @@
       <c r="A22" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C22" s="1" t="s">
@@ -908,7 +905,7 @@
       <c r="A23" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C23" s="1" t="s">
@@ -925,7 +922,7 @@
       <c r="A24" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C24" s="1" t="s">
@@ -942,7 +939,7 @@
       <c r="A25" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C25" s="1" t="s">
@@ -959,7 +956,7 @@
       <c r="A26" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="1" t="s">
         <v>30</v>
       </c>
       <c r="C26" s="1" t="s">
@@ -976,7 +973,7 @@
       <c r="A27" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C27" s="1" t="s">
@@ -993,7 +990,7 @@
       <c r="A28" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="1" t="s">
         <v>31</v>
       </c>
       <c r="C28" s="1" t="s">
@@ -1010,7 +1007,7 @@
       <c r="A29" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C29" s="1" t="s">
@@ -1027,7 +1024,7 @@
       <c r="A30" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="1" t="s">
         <v>32</v>
       </c>
       <c r="C30" s="1" t="s">
@@ -1044,7 +1041,7 @@
       <c r="A31" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="1" t="s">
         <v>33</v>
       </c>
       <c r="C31" s="1" t="s">
@@ -1061,7 +1058,7 @@
       <c r="A32" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C32" s="1" t="s">
@@ -1078,7 +1075,7 @@
       <c r="A33" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C33" s="1" t="s">
@@ -1095,7 +1092,7 @@
       <c r="A34" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="1" t="s">
         <v>34</v>
       </c>
       <c r="C34" s="2" t="s">
@@ -1112,7 +1109,7 @@
       <c r="A35" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C35" s="2" t="s">
@@ -1129,7 +1126,7 @@
       <c r="A36" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="1" t="s">
         <v>35</v>
       </c>
       <c r="C36" s="2" t="s">
@@ -1146,11 +1143,11 @@
       <c r="A37" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C37" s="2" t="s">
-        <v>42</v>
+      <c r="C37" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="D37" s="3">
         <v>44895.125</v>
@@ -1163,7 +1160,7 @@
       <c r="A38" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C38" s="2" t="s">
@@ -1180,7 +1177,7 @@
       <c r="A39" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="1" t="s">
         <v>36</v>
       </c>
       <c r="C39" s="2" t="s">
@@ -1197,7 +1194,7 @@
       <c r="A40" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C40" s="2" t="s">
@@ -1214,7 +1211,7 @@
       <c r="A41" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" s="1" t="s">
         <v>37</v>
       </c>
       <c r="C41" s="2" t="s">
@@ -1231,7 +1228,7 @@
       <c r="A42" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" s="1" t="s">
         <v>31</v>
       </c>
       <c r="C42" s="2" t="s">
@@ -1248,7 +1245,7 @@
       <c r="A43" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" s="1" t="s">
         <v>38</v>
       </c>
       <c r="C43" s="2" t="s">
@@ -1265,7 +1262,7 @@
       <c r="A44" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44" s="1" t="s">
         <v>30</v>
       </c>
       <c r="C44" s="2" t="s">
@@ -1282,7 +1279,7 @@
       <c r="A45" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B45" s="1" t="s">
         <v>39</v>
       </c>
       <c r="C45" s="2" t="s">
@@ -1299,7 +1296,7 @@
       <c r="A46" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46" s="1" t="s">
         <v>33</v>
       </c>
       <c r="C46" s="2" t="s">
@@ -1316,7 +1313,7 @@
       <c r="A47" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="C47" s="2" t="s">
@@ -1333,7 +1330,7 @@
       <c r="A48" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="C48" s="2" t="s">
@@ -1350,7 +1347,7 @@
       <c r="A49" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B49" s="1" t="s">
         <v>32</v>
       </c>
       <c r="C49" s="2" t="s">

--- a/WorldCupSchedule.xlsx
+++ b/WorldCupSchedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectFile\world-cup-cal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AF128E4-D44E-4BF5-8142-2CF9BE44C3F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71FA3405-4632-4116-A2AD-9B82A3BD366E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="1920" windowWidth="17280" windowHeight="9024" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="9024" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="126">
   <si>
     <t>开始时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -174,6 +174,249 @@
   <si>
     <t>TeamB</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1/8 决赛(赛事49)</t>
+  </si>
+  <si>
+    <t>1/8 决赛(赛事50)</t>
+  </si>
+  <si>
+    <t>1/8 决赛(赛事51)</t>
+  </si>
+  <si>
+    <t>1/8 决赛(赛事52)</t>
+  </si>
+  <si>
+    <t>1/8 决赛(赛事53)</t>
+  </si>
+  <si>
+    <t>1/8 决赛(赛事54)</t>
+  </si>
+  <si>
+    <t>1/8 决赛(赛事55)</t>
+  </si>
+  <si>
+    <t>1/8 决赛(赛事56)</t>
+  </si>
+  <si>
+    <t>1/4 决赛(赛事57)</t>
+  </si>
+  <si>
+    <t>1/4 决赛(赛事58)</t>
+  </si>
+  <si>
+    <t>1/4 决赛(赛事59)</t>
+  </si>
+  <si>
+    <t>1/4 决赛(赛事60)</t>
+  </si>
+  <si>
+    <t>半决赛(赛事61)</t>
+  </si>
+  <si>
+    <t>半决赛(赛事62)</t>
+  </si>
+  <si>
+    <t>季军赛(赛事63)</t>
+  </si>
+  <si>
+    <t>决赛(赛事64)</t>
+  </si>
+  <si>
+    <t>A组首名</t>
+  </si>
+  <si>
+    <t>B组次名</t>
+  </si>
+  <si>
+    <t>C组首名</t>
+  </si>
+  <si>
+    <t>D组次名</t>
+  </si>
+  <si>
+    <t>E组首名</t>
+  </si>
+  <si>
+    <t>F组次名</t>
+  </si>
+  <si>
+    <t>G组首名</t>
+  </si>
+  <si>
+    <t>H组次名</t>
+  </si>
+  <si>
+    <t>B组首名</t>
+  </si>
+  <si>
+    <t>A组次名</t>
+  </si>
+  <si>
+    <t>D组首名</t>
+  </si>
+  <si>
+    <t>C组次名</t>
+  </si>
+  <si>
+    <t>F组首名</t>
+  </si>
+  <si>
+    <t>E组次名</t>
+  </si>
+  <si>
+    <t>H组首名</t>
+  </si>
+  <si>
+    <t>G组次名</t>
+  </si>
+  <si>
+    <t>赛事49胜方</t>
+  </si>
+  <si>
+    <t>赛事50胜方</t>
+  </si>
+  <si>
+    <t>赛事53胜方</t>
+  </si>
+  <si>
+    <t>赛事54胜方</t>
+  </si>
+  <si>
+    <t>赛事51胜方</t>
+  </si>
+  <si>
+    <t>赛事52胜方</t>
+  </si>
+  <si>
+    <t>赛事55胜方</t>
+  </si>
+  <si>
+    <t>赛事56胜方</t>
+  </si>
+  <si>
+    <t>赛事57胜方</t>
+  </si>
+  <si>
+    <t>赛事58胜方</t>
+  </si>
+  <si>
+    <t>赛事59胜方</t>
+  </si>
+  <si>
+    <t>赛事60胜方</t>
+  </si>
+  <si>
+    <t>赛事61负方</t>
+  </si>
+  <si>
+    <t>赛事62负方</t>
+  </si>
+  <si>
+    <t>赛事61胜方</t>
+  </si>
+  <si>
+    <t>赛事62胜方</t>
+  </si>
+  <si>
+    <t>2022-12-3T23:00:00Z</t>
+  </si>
+  <si>
+    <t>2022-12-4T01:00:00Z</t>
+  </si>
+  <si>
+    <t>2022-12-4T03:00:00Z</t>
+  </si>
+  <si>
+    <t>2022-12-4T05:00:00Z</t>
+  </si>
+  <si>
+    <t>2022-12-5T23:00:00Z</t>
+  </si>
+  <si>
+    <t>2022-12-6T01:00:00Z</t>
+  </si>
+  <si>
+    <t>2022-12-6T03:00:00Z</t>
+  </si>
+  <si>
+    <t>2022-12-6T05:00:00Z</t>
+  </si>
+  <si>
+    <t>2022-12-4T23:00:00Z</t>
+  </si>
+  <si>
+    <t>2022-12-5T01:00:00Z</t>
+  </si>
+  <si>
+    <t>2022-12-5T03:00:00Z</t>
+  </si>
+  <si>
+    <t>2022-12-5T05:00:00Z</t>
+  </si>
+  <si>
+    <t>2022-12-6T23:00:00Z</t>
+  </si>
+  <si>
+    <t>2022-12-7T01:00:00Z</t>
+  </si>
+  <si>
+    <t>2022-12-7T03:00:00Z</t>
+  </si>
+  <si>
+    <t>2022-12-7T05:00:00Z</t>
+  </si>
+  <si>
+    <t>2022-12-10T03:00:00Z</t>
+  </si>
+  <si>
+    <t>2022-12-10T05:00:00Z</t>
+  </si>
+  <si>
+    <t>2022-12-9T23:00:00Z</t>
+  </si>
+  <si>
+    <t>2022-12-10T01:00:00Z</t>
+  </si>
+  <si>
+    <t>2022-12-11T03:00:00Z</t>
+  </si>
+  <si>
+    <t>2022-12-11T05:00:00Z</t>
+  </si>
+  <si>
+    <t>2022-12-10T23:00:00Z</t>
+  </si>
+  <si>
+    <t>2022-12-11T01:00:00Z</t>
+  </si>
+  <si>
+    <t>2022-12-14T03:00:00Z</t>
+  </si>
+  <si>
+    <t>2022-12-14T05:00:00Z</t>
+  </si>
+  <si>
+    <t>2022-12-15T03:00:00Z</t>
+  </si>
+  <si>
+    <t>2022-12-15T05:00:00Z</t>
+  </si>
+  <si>
+    <t>2022-12-17T23:00:00Z</t>
+  </si>
+  <si>
+    <t>2022-12-17T01:00:00Z</t>
+  </si>
+  <si>
+    <t>2022-12-18T23:00:00Z</t>
+  </si>
+  <si>
+    <t>2022-12-19T01:00:00Z</t>
+  </si>
+  <si>
+    <t>备注</t>
   </si>
 </sst>
 </file>
@@ -511,15 +754,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E49"/>
+  <dimension ref="A1:F65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C32" sqref="A1:E49"/>
+    <sheetView tabSelected="1" topLeftCell="D10" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11" style="1" customWidth="1"/>
+    <col min="1" max="1" width="16.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
@@ -527,7 +770,7 @@
     <col min="7" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>42</v>
       </c>
@@ -543,8 +786,11 @@
       <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -561,7 +807,7 @@
         <v>44886.083333333336</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -578,7 +824,7 @@
         <v>44886.916666666672</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -595,7 +841,7 @@
         <v>44887.083333333336</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -612,7 +858,7 @@
         <v>44887.208333333336</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -629,7 +875,7 @@
         <v>44887.833333333336</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -646,7 +892,7 @@
         <v>44887.958333333336</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>4</v>
       </c>
@@ -663,7 +909,7 @@
         <v>44888.083333333336</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
@@ -680,7 +926,7 @@
         <v>44888.208333333336</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
@@ -697,7 +943,7 @@
         <v>44888.833333333336</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
@@ -714,7 +960,7 @@
         <v>44888.958333333336</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>7</v>
       </c>
@@ -731,7 +977,7 @@
         <v>44889.083333333336</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>6</v>
       </c>
@@ -748,7 +994,7 @@
         <v>44889.208333333336</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>8</v>
       </c>
@@ -765,7 +1011,7 @@
         <v>44889.833333333336</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>9</v>
       </c>
@@ -782,7 +1028,7 @@
         <v>44889.958333333336</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>9</v>
       </c>
@@ -1358,6 +1604,278 @@
       </c>
       <c r="E49" s="3">
         <v>44898.208333333336</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B50" t="s">
+        <v>61</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B51" t="s">
+        <v>63</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B52" t="s">
+        <v>65</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B53" t="s">
+        <v>67</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B54" t="s">
+        <v>69</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B55" t="s">
+        <v>71</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B56" t="s">
+        <v>73</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B57" t="s">
+        <v>75</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B58" t="s">
+        <v>77</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B59" t="s">
+        <v>79</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B60" t="s">
+        <v>81</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B61" t="s">
+        <v>83</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B62" t="s">
+        <v>85</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B63" t="s">
+        <v>87</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B64" t="s">
+        <v>89</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B65" t="s">
+        <v>91</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>124</v>
       </c>
     </row>
   </sheetData>

--- a/WorldCupSchedule.xlsx
+++ b/WorldCupSchedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectFile\world-cup-cal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71FA3405-4632-4116-A2AD-9B82A3BD366E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F31E677A-BEB2-4882-9EE2-CF116761D3AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="9024" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="94">
   <si>
     <t>开始时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -318,102 +318,6 @@
   </si>
   <si>
     <t>赛事62胜方</t>
-  </si>
-  <si>
-    <t>2022-12-3T23:00:00Z</t>
-  </si>
-  <si>
-    <t>2022-12-4T01:00:00Z</t>
-  </si>
-  <si>
-    <t>2022-12-4T03:00:00Z</t>
-  </si>
-  <si>
-    <t>2022-12-4T05:00:00Z</t>
-  </si>
-  <si>
-    <t>2022-12-5T23:00:00Z</t>
-  </si>
-  <si>
-    <t>2022-12-6T01:00:00Z</t>
-  </si>
-  <si>
-    <t>2022-12-6T03:00:00Z</t>
-  </si>
-  <si>
-    <t>2022-12-6T05:00:00Z</t>
-  </si>
-  <si>
-    <t>2022-12-4T23:00:00Z</t>
-  </si>
-  <si>
-    <t>2022-12-5T01:00:00Z</t>
-  </si>
-  <si>
-    <t>2022-12-5T03:00:00Z</t>
-  </si>
-  <si>
-    <t>2022-12-5T05:00:00Z</t>
-  </si>
-  <si>
-    <t>2022-12-6T23:00:00Z</t>
-  </si>
-  <si>
-    <t>2022-12-7T01:00:00Z</t>
-  </si>
-  <si>
-    <t>2022-12-7T03:00:00Z</t>
-  </si>
-  <si>
-    <t>2022-12-7T05:00:00Z</t>
-  </si>
-  <si>
-    <t>2022-12-10T03:00:00Z</t>
-  </si>
-  <si>
-    <t>2022-12-10T05:00:00Z</t>
-  </si>
-  <si>
-    <t>2022-12-9T23:00:00Z</t>
-  </si>
-  <si>
-    <t>2022-12-10T01:00:00Z</t>
-  </si>
-  <si>
-    <t>2022-12-11T03:00:00Z</t>
-  </si>
-  <si>
-    <t>2022-12-11T05:00:00Z</t>
-  </si>
-  <si>
-    <t>2022-12-10T23:00:00Z</t>
-  </si>
-  <si>
-    <t>2022-12-11T01:00:00Z</t>
-  </si>
-  <si>
-    <t>2022-12-14T03:00:00Z</t>
-  </si>
-  <si>
-    <t>2022-12-14T05:00:00Z</t>
-  </si>
-  <si>
-    <t>2022-12-15T03:00:00Z</t>
-  </si>
-  <si>
-    <t>2022-12-15T05:00:00Z</t>
-  </si>
-  <si>
-    <t>2022-12-17T23:00:00Z</t>
-  </si>
-  <si>
-    <t>2022-12-17T01:00:00Z</t>
-  </si>
-  <si>
-    <t>2022-12-18T23:00:00Z</t>
-  </si>
-  <si>
-    <t>2022-12-19T01:00:00Z</t>
   </si>
   <si>
     <t>备注</t>
@@ -756,8 +660,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D10" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I59" sqref="I59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -787,7 +691,7 @@
         <v>1</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>125</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -1610,272 +1514,272 @@
       <c r="A50" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B50" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C50" s="1" t="s">
+      <c r="C50" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="D50" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>94</v>
+      <c r="D50" s="3">
+        <v>44898.958333333336</v>
+      </c>
+      <c r="E50" s="3">
+        <v>44899.041666666664</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B51" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C51" s="1" t="s">
+      <c r="C51" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D51" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>96</v>
+      <c r="D51" s="3">
+        <v>44899.125</v>
+      </c>
+      <c r="E51" s="3">
+        <v>44899.208333333336</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B52" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C52" s="1" t="s">
+      <c r="C52" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D52" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>98</v>
+      <c r="D52" s="3">
+        <v>44900.958333333336</v>
+      </c>
+      <c r="E52" s="3">
+        <v>44901.041666666664</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B53" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C53" s="1" t="s">
+      <c r="C53" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="D53" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>100</v>
+      <c r="D53" s="3">
+        <v>44901.125</v>
+      </c>
+      <c r="E53" s="3">
+        <v>44901.208333333336</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B54" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C54" s="1" t="s">
+      <c r="C54" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="D54" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>102</v>
+      <c r="D54" s="3">
+        <v>44899.958333333336</v>
+      </c>
+      <c r="E54" s="3">
+        <v>44900.041666666664</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B55" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C55" s="1" t="s">
+      <c r="C55" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="D55" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>104</v>
+      <c r="D55" s="3">
+        <v>44900.125</v>
+      </c>
+      <c r="E55" s="3">
+        <v>44900.208333333336</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B56" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C56" s="1" t="s">
+      <c r="C56" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="D56" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="E56" s="1" t="s">
-        <v>106</v>
+      <c r="D56" s="3">
+        <v>44901.958333333336</v>
+      </c>
+      <c r="E56" s="3">
+        <v>44902.041666666664</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B57" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C57" s="1" t="s">
+      <c r="C57" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="D57" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="E57" s="1" t="s">
-        <v>108</v>
+      <c r="D57" s="3">
+        <v>44902.125</v>
+      </c>
+      <c r="E57" s="3">
+        <v>44902.208333333336</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B58" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C58" s="1" t="s">
+      <c r="C58" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="D58" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>110</v>
+      <c r="D58" s="3">
+        <v>44905.125</v>
+      </c>
+      <c r="E58" s="3">
+        <v>44905.208333333336</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B59" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C59" s="1" t="s">
+      <c r="C59" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="D59" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="E59" s="1" t="s">
-        <v>112</v>
+      <c r="D59" s="3">
+        <v>44904.958333333336</v>
+      </c>
+      <c r="E59" s="3">
+        <v>44905.041666666664</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B60" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C60" s="1" t="s">
+      <c r="C60" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="D60" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="E60" s="1" t="s">
-        <v>114</v>
+      <c r="D60" s="3">
+        <v>44906.125</v>
+      </c>
+      <c r="E60" s="3">
+        <v>44906.208333333336</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B61" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C61" s="1" t="s">
+      <c r="C61" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="D61" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="E61" s="1" t="s">
-        <v>116</v>
+      <c r="D61" s="3">
+        <v>44905.958333333336</v>
+      </c>
+      <c r="E61" s="3">
+        <v>44906.041666666664</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B62" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="C62" s="1" t="s">
+      <c r="C62" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="D62" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="E62" s="1" t="s">
-        <v>118</v>
+      <c r="D62" s="3">
+        <v>44909.125</v>
+      </c>
+      <c r="E62" s="3">
+        <v>44909.208333333336</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B63" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C63" s="1" t="s">
+      <c r="C63" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="D63" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="E63" s="1" t="s">
-        <v>120</v>
+      <c r="D63" s="3">
+        <v>44910.125</v>
+      </c>
+      <c r="E63" s="3">
+        <v>44910.208333333336</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B64" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="C64" s="1" t="s">
+      <c r="C64" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="D64" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="E64" s="1" t="s">
-        <v>122</v>
+      <c r="D64" s="3">
+        <v>44912.958333333336</v>
+      </c>
+      <c r="E64" s="3">
+        <v>44913.041666666664</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B65" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="C65" s="1" t="s">
+      <c r="C65" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="D65" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="E65" s="1" t="s">
-        <v>124</v>
+      <c r="D65" s="3">
+        <v>44913.958333333336</v>
+      </c>
+      <c r="E65" s="3">
+        <v>44914.041666666664</v>
       </c>
     </row>
   </sheetData>

--- a/WorldCupSchedule.xlsx
+++ b/WorldCupSchedule.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectFile\world-cup-cal\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\code\world-cup-cal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F31E677A-BEB2-4882-9EE2-CF116761D3AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3939803A-201E-461D-95AE-133694AB528B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5760" yWindow="276" windowWidth="17280" windowHeight="10680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -661,7 +661,7 @@
   <dimension ref="A1:F65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I59" sqref="I59"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -722,10 +722,10 @@
         <v>35</v>
       </c>
       <c r="D3" s="3">
-        <v>44886.833333333336</v>
+        <v>44886.875</v>
       </c>
       <c r="E3" s="3">
-        <v>44886.916666666672</v>
+        <v>44886.958333333336</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">

--- a/WorldCupSchedule.xlsx
+++ b/WorldCupSchedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\code\world-cup-cal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3939803A-201E-461D-95AE-133694AB528B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DF9F9F1-2E2C-4CF0-B515-89B539E8E225}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5760" yWindow="276" windowWidth="17280" windowHeight="10680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="96">
   <si>
     <t>开始时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -321,15 +321,24 @@
   </si>
   <si>
     <t>备注</t>
+  </si>
+  <si>
+    <t>开始时间（UTC）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结束时间（UTC）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="176" formatCode="yyyy/m/d\ h:mm;@"/>
     <numFmt numFmtId="177" formatCode="yyyy\-m\-d\Thh:mm:ss\Z"/>
+    <numFmt numFmtId="178" formatCode="yyyy\-m\-d\Thh:mm:ss"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -367,7 +376,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -376,6 +385,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -658,10 +670,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F65"/>
+  <dimension ref="A1:H65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -670,11 +682,11 @@
     <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="21.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.88671875" style="1"/>
+    <col min="5" max="8" width="21.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>42</v>
       </c>
@@ -693,8 +705,14 @@
       <c r="F1" s="1" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -710,8 +728,16 @@
       <c r="E2" s="3">
         <v>44886.083333333336</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G2" s="4">
+        <f>D2-TIME(8,0,0)</f>
+        <v>44885.666666666664</v>
+      </c>
+      <c r="H2" s="4">
+        <f>E2-TIME(8,0,0)</f>
+        <v>44885.75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -727,8 +753,16 @@
       <c r="E3" s="3">
         <v>44886.958333333336</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G3" s="4">
+        <f t="shared" ref="G3:G65" si="0">D3-TIME(8,0,0)</f>
+        <v>44886.541666666664</v>
+      </c>
+      <c r="H3" s="4">
+        <f t="shared" ref="H3:H65" si="1">E3-TIME(8,0,0)</f>
+        <v>44886.625</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -744,8 +778,16 @@
       <c r="E4" s="3">
         <v>44887.083333333336</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G4" s="4">
+        <f t="shared" si="0"/>
+        <v>44886.666666666664</v>
+      </c>
+      <c r="H4" s="4">
+        <f t="shared" si="1"/>
+        <v>44886.75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -761,8 +803,16 @@
       <c r="E5" s="3">
         <v>44887.208333333336</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G5" s="4">
+        <f t="shared" si="0"/>
+        <v>44886.791666666664</v>
+      </c>
+      <c r="H5" s="4">
+        <f t="shared" si="1"/>
+        <v>44886.875</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -778,8 +828,16 @@
       <c r="E6" s="3">
         <v>44887.833333333336</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G6" s="4">
+        <f t="shared" si="0"/>
+        <v>44887.416666666664</v>
+      </c>
+      <c r="H6" s="4">
+        <f t="shared" si="1"/>
+        <v>44887.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -795,8 +853,16 @@
       <c r="E7" s="3">
         <v>44887.958333333336</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G7" s="4">
+        <f t="shared" si="0"/>
+        <v>44887.541666666664</v>
+      </c>
+      <c r="H7" s="4">
+        <f t="shared" si="1"/>
+        <v>44887.625</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>4</v>
       </c>
@@ -812,8 +878,16 @@
       <c r="E8" s="3">
         <v>44888.083333333336</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G8" s="4">
+        <f t="shared" si="0"/>
+        <v>44887.666666666664</v>
+      </c>
+      <c r="H8" s="4">
+        <f t="shared" si="1"/>
+        <v>44887.75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
@@ -829,8 +903,16 @@
       <c r="E9" s="3">
         <v>44888.208333333336</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G9" s="4">
+        <f t="shared" si="0"/>
+        <v>44887.791666666664</v>
+      </c>
+      <c r="H9" s="4">
+        <f t="shared" si="1"/>
+        <v>44887.875</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
@@ -846,8 +928,16 @@
       <c r="E10" s="3">
         <v>44888.833333333336</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G10" s="4">
+        <f t="shared" si="0"/>
+        <v>44888.416666666664</v>
+      </c>
+      <c r="H10" s="4">
+        <f t="shared" si="1"/>
+        <v>44888.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
@@ -863,8 +953,16 @@
       <c r="E11" s="3">
         <v>44888.958333333336</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G11" s="4">
+        <f t="shared" si="0"/>
+        <v>44888.541666666664</v>
+      </c>
+      <c r="H11" s="4">
+        <f t="shared" si="1"/>
+        <v>44888.625</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>7</v>
       </c>
@@ -880,8 +978,16 @@
       <c r="E12" s="3">
         <v>44889.083333333336</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G12" s="4">
+        <f t="shared" si="0"/>
+        <v>44888.666666666664</v>
+      </c>
+      <c r="H12" s="4">
+        <f t="shared" si="1"/>
+        <v>44888.75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>6</v>
       </c>
@@ -897,8 +1003,16 @@
       <c r="E13" s="3">
         <v>44889.208333333336</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G13" s="4">
+        <f t="shared" si="0"/>
+        <v>44888.791666666664</v>
+      </c>
+      <c r="H13" s="4">
+        <f t="shared" si="1"/>
+        <v>44888.875</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>8</v>
       </c>
@@ -914,8 +1028,16 @@
       <c r="E14" s="3">
         <v>44889.833333333336</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G14" s="4">
+        <f t="shared" si="0"/>
+        <v>44889.416666666664</v>
+      </c>
+      <c r="H14" s="4">
+        <f t="shared" si="1"/>
+        <v>44889.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>9</v>
       </c>
@@ -931,8 +1053,16 @@
       <c r="E15" s="3">
         <v>44889.958333333336</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G15" s="4">
+        <f t="shared" si="0"/>
+        <v>44889.541666666664</v>
+      </c>
+      <c r="H15" s="4">
+        <f t="shared" si="1"/>
+        <v>44889.625</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>9</v>
       </c>
@@ -948,8 +1078,16 @@
       <c r="E16" s="3">
         <v>44890.083333333336</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G16" s="4">
+        <f t="shared" si="0"/>
+        <v>44889.666666666664</v>
+      </c>
+      <c r="H16" s="4">
+        <f t="shared" si="1"/>
+        <v>44889.75</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>8</v>
       </c>
@@ -965,8 +1103,16 @@
       <c r="E17" s="3">
         <v>44890.208333333336</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G17" s="4">
+        <f t="shared" si="0"/>
+        <v>44889.791666666664</v>
+      </c>
+      <c r="H17" s="4">
+        <f t="shared" si="1"/>
+        <v>44889.875</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>3</v>
       </c>
@@ -982,8 +1128,16 @@
       <c r="E18" s="3">
         <v>44890.833333333336</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G18" s="4">
+        <f t="shared" si="0"/>
+        <v>44890.416666666664</v>
+      </c>
+      <c r="H18" s="4">
+        <f t="shared" si="1"/>
+        <v>44890.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>2</v>
       </c>
@@ -999,8 +1153,16 @@
       <c r="E19" s="3">
         <v>44890.958333333336</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G19" s="4">
+        <f t="shared" si="0"/>
+        <v>44890.541666666664</v>
+      </c>
+      <c r="H19" s="4">
+        <f t="shared" si="1"/>
+        <v>44890.625</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>2</v>
       </c>
@@ -1016,8 +1178,16 @@
       <c r="E20" s="3">
         <v>44891.083333333336</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G20" s="4">
+        <f t="shared" si="0"/>
+        <v>44890.666666666664</v>
+      </c>
+      <c r="H20" s="4">
+        <f t="shared" si="1"/>
+        <v>44890.75</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>3</v>
       </c>
@@ -1033,8 +1203,16 @@
       <c r="E21" s="3">
         <v>44891.208333333336</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G21" s="4">
+        <f t="shared" si="0"/>
+        <v>44890.791666666664</v>
+      </c>
+      <c r="H21" s="4">
+        <f t="shared" si="1"/>
+        <v>44890.875</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>5</v>
       </c>
@@ -1050,8 +1228,16 @@
       <c r="E22" s="3">
         <v>44891.833333333336</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G22" s="4">
+        <f t="shared" si="0"/>
+        <v>44891.416666666664</v>
+      </c>
+      <c r="H22" s="4">
+        <f t="shared" si="1"/>
+        <v>44891.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>4</v>
       </c>
@@ -1067,8 +1253,16 @@
       <c r="E23" s="3">
         <v>44891.958333333336</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G23" s="4">
+        <f t="shared" si="0"/>
+        <v>44891.541666666664</v>
+      </c>
+      <c r="H23" s="4">
+        <f t="shared" si="1"/>
+        <v>44891.625</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>5</v>
       </c>
@@ -1084,8 +1278,16 @@
       <c r="E24" s="3">
         <v>44892.083333333336</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G24" s="4">
+        <f t="shared" si="0"/>
+        <v>44891.666666666664</v>
+      </c>
+      <c r="H24" s="4">
+        <f t="shared" si="1"/>
+        <v>44891.75</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>4</v>
       </c>
@@ -1101,8 +1303,16 @@
       <c r="E25" s="3">
         <v>44892.208333333336</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G25" s="4">
+        <f t="shared" si="0"/>
+        <v>44891.791666666664</v>
+      </c>
+      <c r="H25" s="4">
+        <f t="shared" si="1"/>
+        <v>44891.875</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>7</v>
       </c>
@@ -1118,8 +1328,16 @@
       <c r="E26" s="3">
         <v>44892.833333333336</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G26" s="4">
+        <f t="shared" si="0"/>
+        <v>44892.416666666664</v>
+      </c>
+      <c r="H26" s="4">
+        <f t="shared" si="1"/>
+        <v>44892.5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>6</v>
       </c>
@@ -1135,8 +1353,16 @@
       <c r="E27" s="3">
         <v>44892.958333333336</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G27" s="4">
+        <f t="shared" si="0"/>
+        <v>44892.541666666664</v>
+      </c>
+      <c r="H27" s="4">
+        <f t="shared" si="1"/>
+        <v>44892.625</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>6</v>
       </c>
@@ -1152,8 +1378,16 @@
       <c r="E28" s="3">
         <v>44893.083333333336</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G28" s="4">
+        <f t="shared" si="0"/>
+        <v>44892.666666666664</v>
+      </c>
+      <c r="H28" s="4">
+        <f t="shared" si="1"/>
+        <v>44892.75</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>7</v>
       </c>
@@ -1169,8 +1403,16 @@
       <c r="E29" s="3">
         <v>44893.208333333336</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G29" s="4">
+        <f t="shared" si="0"/>
+        <v>44892.791666666664</v>
+      </c>
+      <c r="H29" s="4">
+        <f t="shared" si="1"/>
+        <v>44892.875</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>8</v>
       </c>
@@ -1186,8 +1428,16 @@
       <c r="E30" s="3">
         <v>44893.833333333336</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G30" s="4">
+        <f t="shared" si="0"/>
+        <v>44893.416666666664</v>
+      </c>
+      <c r="H30" s="4">
+        <f t="shared" si="1"/>
+        <v>44893.5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>9</v>
       </c>
@@ -1203,8 +1453,16 @@
       <c r="E31" s="3">
         <v>44893.958333333336</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G31" s="4">
+        <f t="shared" si="0"/>
+        <v>44893.541666666664</v>
+      </c>
+      <c r="H31" s="4">
+        <f t="shared" si="1"/>
+        <v>44893.625</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>8</v>
       </c>
@@ -1220,8 +1478,16 @@
       <c r="E32" s="3">
         <v>44894.083333333336</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G32" s="4">
+        <f t="shared" si="0"/>
+        <v>44893.666666666664</v>
+      </c>
+      <c r="H32" s="4">
+        <f t="shared" si="1"/>
+        <v>44893.75</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>9</v>
       </c>
@@ -1237,8 +1503,16 @@
       <c r="E33" s="3">
         <v>44894.208333333336</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G33" s="4">
+        <f t="shared" si="0"/>
+        <v>44893.791666666664</v>
+      </c>
+      <c r="H33" s="4">
+        <f t="shared" si="1"/>
+        <v>44893.875</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>2</v>
       </c>
@@ -1254,8 +1528,16 @@
       <c r="E34" s="3">
         <v>44895.041666666672</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G34" s="4">
+        <f t="shared" si="0"/>
+        <v>44894.625</v>
+      </c>
+      <c r="H34" s="4">
+        <f t="shared" si="1"/>
+        <v>44894.708333333336</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>2</v>
       </c>
@@ -1271,8 +1553,16 @@
       <c r="E35" s="3">
         <v>44895.041666666672</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G35" s="4">
+        <f t="shared" si="0"/>
+        <v>44894.625</v>
+      </c>
+      <c r="H35" s="4">
+        <f t="shared" si="1"/>
+        <v>44894.708333333336</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>3</v>
       </c>
@@ -1288,8 +1578,16 @@
       <c r="E36" s="3">
         <v>44895.208333333336</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G36" s="4">
+        <f t="shared" si="0"/>
+        <v>44894.791666666664</v>
+      </c>
+      <c r="H36" s="4">
+        <f t="shared" si="1"/>
+        <v>44894.875</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>3</v>
       </c>
@@ -1305,8 +1603,16 @@
       <c r="E37" s="3">
         <v>44895.208333333336</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G37" s="4">
+        <f t="shared" si="0"/>
+        <v>44894.791666666664</v>
+      </c>
+      <c r="H37" s="4">
+        <f t="shared" si="1"/>
+        <v>44894.875</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>5</v>
       </c>
@@ -1322,8 +1628,16 @@
       <c r="E38" s="3">
         <v>44896.041666666672</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G38" s="4">
+        <f t="shared" si="0"/>
+        <v>44895.625</v>
+      </c>
+      <c r="H38" s="4">
+        <f t="shared" si="1"/>
+        <v>44895.708333333336</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>5</v>
       </c>
@@ -1339,8 +1653,16 @@
       <c r="E39" s="3">
         <v>44896.041666666672</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G39" s="4">
+        <f t="shared" si="0"/>
+        <v>44895.625</v>
+      </c>
+      <c r="H39" s="4">
+        <f t="shared" si="1"/>
+        <v>44895.708333333336</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>4</v>
       </c>
@@ -1356,8 +1678,16 @@
       <c r="E40" s="3">
         <v>44896.208333333336</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G40" s="4">
+        <f t="shared" si="0"/>
+        <v>44895.791666666664</v>
+      </c>
+      <c r="H40" s="4">
+        <f t="shared" si="1"/>
+        <v>44895.875</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>4</v>
       </c>
@@ -1373,8 +1703,16 @@
       <c r="E41" s="3">
         <v>44896.208333333336</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G41" s="4">
+        <f t="shared" si="0"/>
+        <v>44895.791666666664</v>
+      </c>
+      <c r="H41" s="4">
+        <f t="shared" si="1"/>
+        <v>44895.875</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>6</v>
       </c>
@@ -1390,8 +1728,16 @@
       <c r="E42" s="3">
         <v>44897.041666666672</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G42" s="4">
+        <f t="shared" si="0"/>
+        <v>44896.625</v>
+      </c>
+      <c r="H42" s="4">
+        <f t="shared" si="1"/>
+        <v>44896.708333333336</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>6</v>
       </c>
@@ -1407,8 +1753,16 @@
       <c r="E43" s="3">
         <v>44897.041666666672</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G43" s="4">
+        <f t="shared" si="0"/>
+        <v>44896.625</v>
+      </c>
+      <c r="H43" s="4">
+        <f t="shared" si="1"/>
+        <v>44896.708333333336</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>7</v>
       </c>
@@ -1424,8 +1778,16 @@
       <c r="E44" s="3">
         <v>44897.208333333336</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G44" s="4">
+        <f t="shared" si="0"/>
+        <v>44896.791666666664</v>
+      </c>
+      <c r="H44" s="4">
+        <f t="shared" si="1"/>
+        <v>44896.875</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>7</v>
       </c>
@@ -1441,8 +1803,16 @@
       <c r="E45" s="3">
         <v>44897.208333333336</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G45" s="4">
+        <f t="shared" si="0"/>
+        <v>44896.791666666664</v>
+      </c>
+      <c r="H45" s="4">
+        <f t="shared" si="1"/>
+        <v>44896.875</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>9</v>
       </c>
@@ -1458,8 +1828,16 @@
       <c r="E46" s="3">
         <v>44898.041666666672</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G46" s="4">
+        <f t="shared" si="0"/>
+        <v>44897.625</v>
+      </c>
+      <c r="H46" s="4">
+        <f t="shared" si="1"/>
+        <v>44897.708333333336</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>9</v>
       </c>
@@ -1475,8 +1853,16 @@
       <c r="E47" s="3">
         <v>44898.041666666672</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G47" s="4">
+        <f t="shared" si="0"/>
+        <v>44897.625</v>
+      </c>
+      <c r="H47" s="4">
+        <f t="shared" si="1"/>
+        <v>44897.708333333336</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>8</v>
       </c>
@@ -1492,8 +1878,16 @@
       <c r="E48" s="3">
         <v>44898.208333333336</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G48" s="4">
+        <f t="shared" si="0"/>
+        <v>44897.791666666664</v>
+      </c>
+      <c r="H48" s="4">
+        <f t="shared" si="1"/>
+        <v>44897.875</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>8</v>
       </c>
@@ -1509,8 +1903,16 @@
       <c r="E49" s="3">
         <v>44898.208333333336</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G49" s="4">
+        <f t="shared" si="0"/>
+        <v>44897.791666666664</v>
+      </c>
+      <c r="H49" s="4">
+        <f t="shared" si="1"/>
+        <v>44897.875</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>45</v>
       </c>
@@ -1526,8 +1928,16 @@
       <c r="E50" s="3">
         <v>44899.041666666664</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G50" s="4">
+        <f t="shared" si="0"/>
+        <v>44898.625</v>
+      </c>
+      <c r="H50" s="4">
+        <f t="shared" si="1"/>
+        <v>44898.708333333328</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>46</v>
       </c>
@@ -1543,8 +1953,16 @@
       <c r="E51" s="3">
         <v>44899.208333333336</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G51" s="4">
+        <f t="shared" si="0"/>
+        <v>44898.791666666664</v>
+      </c>
+      <c r="H51" s="4">
+        <f t="shared" si="1"/>
+        <v>44898.875</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>47</v>
       </c>
@@ -1560,8 +1978,16 @@
       <c r="E52" s="3">
         <v>44901.041666666664</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G52" s="4">
+        <f t="shared" si="0"/>
+        <v>44900.625</v>
+      </c>
+      <c r="H52" s="4">
+        <f t="shared" si="1"/>
+        <v>44900.708333333328</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>48</v>
       </c>
@@ -1577,8 +2003,16 @@
       <c r="E53" s="3">
         <v>44901.208333333336</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G53" s="4">
+        <f t="shared" si="0"/>
+        <v>44900.791666666664</v>
+      </c>
+      <c r="H53" s="4">
+        <f t="shared" si="1"/>
+        <v>44900.875</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>49</v>
       </c>
@@ -1594,8 +2028,16 @@
       <c r="E54" s="3">
         <v>44900.041666666664</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G54" s="4">
+        <f t="shared" si="0"/>
+        <v>44899.625</v>
+      </c>
+      <c r="H54" s="4">
+        <f t="shared" si="1"/>
+        <v>44899.708333333328</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>50</v>
       </c>
@@ -1611,8 +2053,16 @@
       <c r="E55" s="3">
         <v>44900.208333333336</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G55" s="4">
+        <f t="shared" si="0"/>
+        <v>44899.791666666664</v>
+      </c>
+      <c r="H55" s="4">
+        <f t="shared" si="1"/>
+        <v>44899.875</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>51</v>
       </c>
@@ -1628,8 +2078,16 @@
       <c r="E56" s="3">
         <v>44902.041666666664</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G56" s="4">
+        <f t="shared" si="0"/>
+        <v>44901.625</v>
+      </c>
+      <c r="H56" s="4">
+        <f t="shared" si="1"/>
+        <v>44901.708333333328</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>52</v>
       </c>
@@ -1645,8 +2103,16 @@
       <c r="E57" s="3">
         <v>44902.208333333336</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G57" s="4">
+        <f t="shared" si="0"/>
+        <v>44901.791666666664</v>
+      </c>
+      <c r="H57" s="4">
+        <f t="shared" si="1"/>
+        <v>44901.875</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>53</v>
       </c>
@@ -1662,8 +2128,16 @@
       <c r="E58" s="3">
         <v>44905.208333333336</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G58" s="4">
+        <f t="shared" si="0"/>
+        <v>44904.791666666664</v>
+      </c>
+      <c r="H58" s="4">
+        <f t="shared" si="1"/>
+        <v>44904.875</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>54</v>
       </c>
@@ -1679,8 +2153,16 @@
       <c r="E59" s="3">
         <v>44905.041666666664</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G59" s="4">
+        <f t="shared" si="0"/>
+        <v>44904.625</v>
+      </c>
+      <c r="H59" s="4">
+        <f t="shared" si="1"/>
+        <v>44904.708333333328</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>55</v>
       </c>
@@ -1696,8 +2178,16 @@
       <c r="E60" s="3">
         <v>44906.208333333336</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G60" s="4">
+        <f t="shared" si="0"/>
+        <v>44905.791666666664</v>
+      </c>
+      <c r="H60" s="4">
+        <f t="shared" si="1"/>
+        <v>44905.875</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>56</v>
       </c>
@@ -1713,8 +2203,16 @@
       <c r="E61" s="3">
         <v>44906.041666666664</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G61" s="4">
+        <f t="shared" si="0"/>
+        <v>44905.625</v>
+      </c>
+      <c r="H61" s="4">
+        <f t="shared" si="1"/>
+        <v>44905.708333333328</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>57</v>
       </c>
@@ -1730,8 +2228,16 @@
       <c r="E62" s="3">
         <v>44909.208333333336</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G62" s="4">
+        <f t="shared" si="0"/>
+        <v>44908.791666666664</v>
+      </c>
+      <c r="H62" s="4">
+        <f t="shared" si="1"/>
+        <v>44908.875</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>58</v>
       </c>
@@ -1747,8 +2253,16 @@
       <c r="E63" s="3">
         <v>44910.208333333336</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G63" s="4">
+        <f t="shared" si="0"/>
+        <v>44909.791666666664</v>
+      </c>
+      <c r="H63" s="4">
+        <f t="shared" si="1"/>
+        <v>44909.875</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>59</v>
       </c>
@@ -1764,8 +2278,16 @@
       <c r="E64" s="3">
         <v>44913.041666666664</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G64" s="4">
+        <f t="shared" si="0"/>
+        <v>44912.625</v>
+      </c>
+      <c r="H64" s="4">
+        <f t="shared" si="1"/>
+        <v>44912.708333333328</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>60</v>
       </c>
@@ -1780,6 +2302,14 @@
       </c>
       <c r="E65" s="3">
         <v>44914.041666666664</v>
+      </c>
+      <c r="G65" s="4">
+        <f t="shared" si="0"/>
+        <v>44913.625</v>
+      </c>
+      <c r="H65" s="4">
+        <f t="shared" si="1"/>
+        <v>44913.708333333328</v>
       </c>
     </row>
   </sheetData>

--- a/WorldCupSchedule.xlsx
+++ b/WorldCupSchedule.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\code\world-cup-cal\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectFile\world-cup-cal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DF9F9F1-2E2C-4CF0-B515-89B539E8E225}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B345AC3-92CC-4D4C-9D17-25DE541309E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -188,146 +188,165 @@
     <t>1/8 决赛(赛事52)</t>
   </si>
   <si>
+    <t>1/8 决赛(赛事56)</t>
+  </si>
+  <si>
+    <t>1/4 决赛(赛事57)</t>
+  </si>
+  <si>
+    <t>1/4 决赛(赛事58)</t>
+  </si>
+  <si>
+    <t>1/4 决赛(赛事59)</t>
+  </si>
+  <si>
+    <t>1/4 决赛(赛事60)</t>
+  </si>
+  <si>
+    <t>半决赛(赛事61)</t>
+  </si>
+  <si>
+    <t>半决赛(赛事62)</t>
+  </si>
+  <si>
+    <t>季军赛(赛事63)</t>
+  </si>
+  <si>
+    <t>决赛(赛事64)</t>
+  </si>
+  <si>
+    <t>赛事49胜方</t>
+  </si>
+  <si>
+    <t>赛事50胜方</t>
+  </si>
+  <si>
+    <t>赛事53胜方</t>
+  </si>
+  <si>
+    <t>赛事54胜方</t>
+  </si>
+  <si>
+    <t>赛事51胜方</t>
+  </si>
+  <si>
+    <t>赛事52胜方</t>
+  </si>
+  <si>
+    <t>赛事55胜方</t>
+  </si>
+  <si>
+    <t>赛事56胜方</t>
+  </si>
+  <si>
+    <t>赛事57胜方</t>
+  </si>
+  <si>
+    <t>赛事58胜方</t>
+  </si>
+  <si>
+    <t>赛事59胜方</t>
+  </si>
+  <si>
+    <t>赛事60胜方</t>
+  </si>
+  <si>
+    <t>赛事61负方</t>
+  </si>
+  <si>
+    <t>赛事62负方</t>
+  </si>
+  <si>
+    <t>赛事61胜方</t>
+  </si>
+  <si>
+    <t>赛事62胜方</t>
+  </si>
+  <si>
+    <t>备注</t>
+  </si>
+  <si>
+    <t>开始时间（UTC）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结束时间（UTC）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>荷兰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>美国</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>英格兰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>塞内加尔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿根廷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>澳大利亚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1/8 决赛(赛事55)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1/8 决赛(赛事54)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>1/8 决赛(赛事53)</t>
-  </si>
-  <si>
-    <t>1/8 决赛(赛事54)</t>
-  </si>
-  <si>
-    <t>1/8 决赛(赛事55)</t>
-  </si>
-  <si>
-    <t>1/8 决赛(赛事56)</t>
-  </si>
-  <si>
-    <t>1/4 决赛(赛事57)</t>
-  </si>
-  <si>
-    <t>1/4 决赛(赛事58)</t>
-  </si>
-  <si>
-    <t>1/4 决赛(赛事59)</t>
-  </si>
-  <si>
-    <t>1/4 决赛(赛事60)</t>
-  </si>
-  <si>
-    <t>半决赛(赛事61)</t>
-  </si>
-  <si>
-    <t>半决赛(赛事62)</t>
-  </si>
-  <si>
-    <t>季军赛(赛事63)</t>
-  </si>
-  <si>
-    <t>决赛(赛事64)</t>
-  </si>
-  <si>
-    <t>A组首名</t>
-  </si>
-  <si>
-    <t>B组次名</t>
-  </si>
-  <si>
-    <t>C组首名</t>
-  </si>
-  <si>
-    <t>D组次名</t>
-  </si>
-  <si>
-    <t>E组首名</t>
-  </si>
-  <si>
-    <t>F组次名</t>
-  </si>
-  <si>
-    <t>G组首名</t>
-  </si>
-  <si>
-    <t>H组次名</t>
-  </si>
-  <si>
-    <t>B组首名</t>
-  </si>
-  <si>
-    <t>A组次名</t>
-  </si>
-  <si>
-    <t>D组首名</t>
-  </si>
-  <si>
-    <t>C组次名</t>
-  </si>
-  <si>
-    <t>F组首名</t>
-  </si>
-  <si>
-    <t>E组次名</t>
-  </si>
-  <si>
-    <t>H组首名</t>
-  </si>
-  <si>
-    <t>G组次名</t>
-  </si>
-  <si>
-    <t>赛事49胜方</t>
-  </si>
-  <si>
-    <t>赛事50胜方</t>
-  </si>
-  <si>
-    <t>赛事53胜方</t>
-  </si>
-  <si>
-    <t>赛事54胜方</t>
-  </si>
-  <si>
-    <t>赛事51胜方</t>
-  </si>
-  <si>
-    <t>赛事52胜方</t>
-  </si>
-  <si>
-    <t>赛事55胜方</t>
-  </si>
-  <si>
-    <t>赛事56胜方</t>
-  </si>
-  <si>
-    <t>赛事57胜方</t>
-  </si>
-  <si>
-    <t>赛事58胜方</t>
-  </si>
-  <si>
-    <t>赛事59胜方</t>
-  </si>
-  <si>
-    <t>赛事60胜方</t>
-  </si>
-  <si>
-    <t>赛事61负方</t>
-  </si>
-  <si>
-    <t>赛事62负方</t>
-  </si>
-  <si>
-    <t>赛事61胜方</t>
-  </si>
-  <si>
-    <t>赛事62胜方</t>
-  </si>
-  <si>
-    <t>备注</t>
-  </si>
-  <si>
-    <t>开始时间（UTC）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>结束时间（UTC）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>法国</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>波兰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>克罗地亚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>摩洛哥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西班牙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巴西</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>韩国</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>葡萄牙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>瑞士</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -672,8 +691,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="C57" sqref="C57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -703,13 +722,13 @@
         <v>1</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -1917,10 +1936,10 @@
         <v>45</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="D50" s="3">
         <v>44898.958333333336</v>
@@ -1942,10 +1961,10 @@
         <v>46</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>63</v>
+        <v>81</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>64</v>
+        <v>82</v>
       </c>
       <c r="D51" s="3">
         <v>44899.125</v>
@@ -1967,10 +1986,10 @@
         <v>47</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>65</v>
+        <v>88</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>66</v>
+        <v>89</v>
       </c>
       <c r="D52" s="3">
         <v>44900.958333333336</v>
@@ -1992,10 +2011,10 @@
         <v>48</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>67</v>
+        <v>92</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>68</v>
+        <v>93</v>
       </c>
       <c r="D53" s="3">
         <v>44901.125</v>
@@ -2014,13 +2033,13 @@
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>49</v>
+        <v>85</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="D54" s="3">
         <v>44899.958333333336</v>
@@ -2039,13 +2058,13 @@
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>50</v>
+        <v>84</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="D55" s="3">
         <v>44900.125</v>
@@ -2054,23 +2073,23 @@
         <v>44900.208333333336</v>
       </c>
       <c r="G55" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="G55" si="2">D55-TIME(8,0,0)</f>
         <v>44899.791666666664</v>
       </c>
       <c r="H55" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="H55" si="3">E55-TIME(8,0,0)</f>
         <v>44899.875</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>51</v>
+        <v>83</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="D56" s="3">
         <v>44901.958333333336</v>
@@ -2089,13 +2108,13 @@
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>76</v>
+        <v>95</v>
       </c>
       <c r="D57" s="3">
         <v>44902.125</v>
@@ -2114,13 +2133,13 @@
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>77</v>
+        <v>58</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>78</v>
+        <v>59</v>
       </c>
       <c r="D58" s="3">
         <v>44905.125</v>
@@ -2139,13 +2158,13 @@
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="D59" s="3">
         <v>44904.958333333336</v>
@@ -2164,13 +2183,13 @@
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="D60" s="3">
         <v>44906.125</v>
@@ -2189,13 +2208,13 @@
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="D61" s="3">
         <v>44905.958333333336</v>
@@ -2214,13 +2233,13 @@
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>86</v>
+        <v>67</v>
       </c>
       <c r="D62" s="3">
         <v>44909.125</v>
@@ -2239,13 +2258,13 @@
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>88</v>
+        <v>69</v>
       </c>
       <c r="D63" s="3">
         <v>44910.125</v>
@@ -2264,13 +2283,13 @@
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="D64" s="3">
         <v>44912.958333333336</v>
@@ -2289,13 +2308,13 @@
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="D65" s="3">
         <v>44913.958333333336</v>

--- a/WorldCupSchedule.xlsx
+++ b/WorldCupSchedule.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectFile\world-cup-cal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B345AC3-92CC-4D4C-9D17-25DE541309E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{264171AD-02AA-41D0-9F98-292C4A393F6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="80">
   <si>
     <t>开始时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -209,60 +210,6 @@
     <t>半决赛(赛事62)</t>
   </si>
   <si>
-    <t>季军赛(赛事63)</t>
-  </si>
-  <si>
-    <t>决赛(赛事64)</t>
-  </si>
-  <si>
-    <t>赛事49胜方</t>
-  </si>
-  <si>
-    <t>赛事50胜方</t>
-  </si>
-  <si>
-    <t>赛事53胜方</t>
-  </si>
-  <si>
-    <t>赛事54胜方</t>
-  </si>
-  <si>
-    <t>赛事51胜方</t>
-  </si>
-  <si>
-    <t>赛事52胜方</t>
-  </si>
-  <si>
-    <t>赛事55胜方</t>
-  </si>
-  <si>
-    <t>赛事56胜方</t>
-  </si>
-  <si>
-    <t>赛事57胜方</t>
-  </si>
-  <si>
-    <t>赛事58胜方</t>
-  </si>
-  <si>
-    <t>赛事59胜方</t>
-  </si>
-  <si>
-    <t>赛事60胜方</t>
-  </si>
-  <si>
-    <t>赛事61负方</t>
-  </si>
-  <si>
-    <t>赛事62负方</t>
-  </si>
-  <si>
-    <t>赛事61胜方</t>
-  </si>
-  <si>
-    <t>赛事62胜方</t>
-  </si>
-  <si>
     <t>备注</t>
   </si>
   <si>
@@ -347,6 +294,14 @@
   </si>
   <si>
     <t>瑞士</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>季军赛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>决赛</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -689,10 +644,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H65"/>
+  <dimension ref="A1:H69"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="C57" sqref="C57"/>
+      <selection activeCell="C64" sqref="C64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -722,13 +677,13 @@
         <v>1</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -1936,10 +1891,10 @@
         <v>45</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="D50" s="3">
         <v>44898.958333333336</v>
@@ -1961,10 +1916,10 @@
         <v>46</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="D51" s="3">
         <v>44899.125</v>
@@ -1986,10 +1941,10 @@
         <v>47</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>89</v>
+        <v>71</v>
       </c>
       <c r="D52" s="3">
         <v>44900.958333333336</v>
@@ -2011,10 +1966,10 @@
         <v>48</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="D53" s="3">
         <v>44901.125</v>
@@ -2033,13 +1988,13 @@
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="D54" s="3">
         <v>44899.958333333336</v>
@@ -2058,13 +2013,13 @@
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>84</v>
+        <v>66</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="D55" s="3">
         <v>44900.125</v>
@@ -2083,13 +2038,13 @@
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="D56" s="3">
         <v>44901.958333333336</v>
@@ -2111,10 +2066,10 @@
         <v>49</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="D57" s="3">
         <v>44902.125</v>
@@ -2136,10 +2091,10 @@
         <v>50</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="D58" s="3">
         <v>44905.125</v>
@@ -2161,49 +2116,49 @@
         <v>51</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>61</v>
       </c>
       <c r="D59" s="3">
-        <v>44904.958333333336</v>
+        <v>44906.125</v>
       </c>
       <c r="E59" s="3">
-        <v>44905.041666666664</v>
+        <v>44906.208333333336</v>
       </c>
       <c r="G59" s="4">
-        <f t="shared" si="0"/>
-        <v>44904.625</v>
+        <f t="shared" ref="G59" si="4">D59-TIME(8,0,0)</f>
+        <v>44905.791666666664</v>
       </c>
       <c r="H59" s="4">
-        <f t="shared" si="1"/>
-        <v>44904.708333333328</v>
+        <f t="shared" ref="H59" si="5">E59-TIME(8,0,0)</f>
+        <v>44905.875</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B60" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>63</v>
+      <c r="B60" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>74</v>
       </c>
       <c r="D60" s="3">
-        <v>44906.125</v>
+        <v>44904.958333333336</v>
       </c>
       <c r="E60" s="3">
-        <v>44906.208333333336</v>
+        <v>44905.041666666664</v>
       </c>
       <c r="G60" s="4">
-        <f t="shared" si="0"/>
-        <v>44905.791666666664</v>
+        <f t="shared" ref="G60" si="6">D60-TIME(8,0,0)</f>
+        <v>44904.625</v>
       </c>
       <c r="H60" s="4">
-        <f t="shared" si="1"/>
-        <v>44905.875</v>
+        <f t="shared" ref="H60" si="7">E60-TIME(8,0,0)</f>
+        <v>44904.708333333328</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
@@ -2211,10 +2166,10 @@
         <v>53</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>65</v>
+        <v>72</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>76</v>
       </c>
       <c r="D61" s="3">
         <v>44905.958333333336</v>
@@ -2235,11 +2190,11 @@
       <c r="A62" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B62" s="1" t="s">
-        <v>66</v>
+      <c r="B62" s="2" t="s">
+        <v>63</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="D62" s="3">
         <v>44909.125</v>
@@ -2263,8 +2218,8 @@
       <c r="B63" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C63" s="2" t="s">
-        <v>69</v>
+      <c r="C63" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="D63" s="3">
         <v>44910.125</v>
@@ -2283,13 +2238,13 @@
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C64" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B64" s="2" t="s">
         <v>71</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="D64" s="3">
         <v>44912.958333333336</v>
@@ -2308,13 +2263,13 @@
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>73</v>
+        <v>79</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="D65" s="3">
         <v>44913.958333333336</v>
@@ -2330,6 +2285,10 @@
         <f t="shared" si="1"/>
         <v>44913.708333333328</v>
       </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F69" s="3"/>
+      <c r="G69" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
